--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,52 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-x + y_1 + y_2</t>
-  </si>
-  <si>
-    <t>0.2737508709830059</t>
+    <t>-0.25 - x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6261647232860903</t>
-  </si>
-  <si>
-    <t>0.6813560769562163</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>1.7000000000000002 - y_1</t>
+  </si>
+  <si>
+    <t>-1.7000000000000002</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-y_1</t>
-  </si>
-  <si>
-    <t>-1.9722381242334144</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.9520276521867266</t>
-  </si>
-  <si>
-    <t>0.4806150306013479</t>
-  </si>
-  <si>
-    <t>-y_2</t>
-  </si>
-  <si>
-    <t>-2.1564436298587824</t>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>-3.8 - y_2</t>
+  </si>
+  <si>
+    <t>-3.8</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.1729467021495048</t>
-  </si>
-  <si>
-    <t>0.10323053481396693</t>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>x</t>
@@ -123,31 +126,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>3.854930883109191</t>
-  </si>
-  <si>
-    <t>1.9722381242334144</t>
-  </si>
-  <si>
-    <t>2.1564436298587824</t>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.646375195332778</t>
-  </si>
-  <si>
-    <t>-1.4532180211365855</t>
+    <t>-1.9000000000000001</t>
+  </si>
+  <si>
+    <t>-0.96</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.6535942011896306</t>
-  </si>
-  <si>
-    <t>-0.8377997068149986</t>
+    <t>-4.5</t>
+  </si>
+  <si>
+    <t>-6.6</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -618,30 +621,30 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -659,24 +662,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -694,17 +697,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +725,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -732,12 +735,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,55 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.25 - x + y_1 + y_2</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
-  </si>
-  <si>
-    <t>1.7000000000000002 - y_1</t>
-  </si>
-  <si>
-    <t>-1.7000000000000002</t>
+    <t>-x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4.85 - y_1</t>
+  </si>
+  <si>
+    <t>-4.85</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>-3.8 - y_2</t>
-  </si>
-  <si>
-    <t>-3.8</t>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>-5.6000000000000005</t>
+  </si>
+  <si>
+    <t>-4.9</t>
+  </si>
+  <si>
+    <t>-4.7 - y_2</t>
+  </si>
+  <si>
+    <t>-4.7</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>-9.7</t>
   </si>
   <si>
     <t>x</t>
@@ -126,31 +126,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.9000000000000001</t>
-  </si>
-  <si>
-    <t>-0.96</t>
+    <t>-4.54</t>
+  </si>
+  <si>
+    <t>-0.74</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-4.5</t>
-  </si>
-  <si>
-    <t>-6.6</t>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-8.45</t>
+  </si>
+  <si>
+    <t>-12.399999999999999</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -641,7 +644,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -730,17 +733,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
